--- a/api/db/data/cards.xlsx
+++ b/api/db/data/cards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -59,7 +59,7 @@
 Формляют заемный продукт в качестве финансовой страховки на случай непредвиденных расходов.</t>
   </si>
   <si>
-    <t xml:space="preserve">CardCredit</t>
+    <t xml:space="preserve">CreditCard</t>
   </si>
   <si>
     <t xml:space="preserve">14.9%</t>
@@ -89,10 +89,7 @@
     <t xml:space="preserve">Кредитная СберКарта</t>
   </si>
   <si>
-    <t xml:space="preserve">Debit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CreditCard</t>
+    <t xml:space="preserve">DebitCard</t>
   </si>
   <si>
     <t xml:space="preserve">Дебетовая СберКарта</t>
@@ -110,6 +107,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -212,15 +210,16 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.17"/>
   </cols>
   <sheetData>
@@ -395,7 +394,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>500</v>
@@ -412,7 +411,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>300</v>
@@ -426,7 +425,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>150</v>
@@ -443,7 +442,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>500</v>
@@ -454,13 +453,13 @@
     </row>
     <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>1000</v>
